--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3241.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3241.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.612340257493748</v>
+        <v>1.092207074165344</v>
       </c>
       <c r="B1">
-        <v>2.507318937109049</v>
+        <v>1.01624608039856</v>
       </c>
       <c r="C1">
-        <v>2.959142824041157</v>
+        <v>0.8136826753616333</v>
       </c>
       <c r="D1">
-        <v>3.423325275933291</v>
+        <v>0.8097929954528809</v>
       </c>
       <c r="E1">
-        <v>2.221690407974692</v>
+        <v>0.8984602093696594</v>
       </c>
     </row>
   </sheetData>
